--- a/output/item/마우스/2021-12-18_마우스.xlsx
+++ b/output/item/마우스/2021-12-18_마우스.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>앱코 A660 3325 프로페셔널 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 A660 3325 프로페셔널 게이밍 마우스</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROCCAT KONE PURE SEL RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>ROCCAT KONE PURE SEL RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COX CM50 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>COX CM50 RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>앱코 A200 3050 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 A200 3050 RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TG삼보 TM615U HEALING 인체공학 버티컬 유선&lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>TG삼보 TM615U HEALING 인체공학 버티컬 유선마우스</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>앱코 A700 하이엔드 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 A700 하이엔드 게이밍 마우스</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>로지텍G G PRO HERO 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>로지텍G G PRO HERO 게이밍 마우스</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>앱코 A250 3050 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 A250 3050 RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>앱코 AEM20 인체공학 버티컬 유선 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 AEM20 인체공학 버티컬 유선 마우스</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>앱코 A660 3360 하이엔드 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 A660 3360 하이엔드 게이밍 마우스</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COX CM60 TARGET RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>COX CM60 TARGET RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>플레오맥스 MO-ER50 버티컬 유선 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>플레오맥스 MO-ER50 버티컬 유선 마우스</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>리줌 M1 RGB 매크로 버티컬 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>리줌 M1 RGB 매크로 버티컬 마우스</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TG삼보 TG-M300UN 인체공학 무소음 유선 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>TG삼보 TG-M300UN 인체공학 무소음 유선 마우스</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>블레스정보통신 지오 i980 RGB 버티컬 인체공학 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>블레스정보통신 지오 i980 RGB 버티컬 인체공학 마우스</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COX CM90 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>COX CM90 RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TG삼보 TM137U HEALING 인체공학 버티컬&lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>TG삼보 TM137U HEALING 인체공학 버티컬마우스</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>앱코 A900 3389 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 A900 3389 RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>세컨드찬스 긱스타 GM900 3325 LED 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>세컨드찬스 긱스타 GM900 3325 LED 게이밍 마우스</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HP M100S Gaming &lt;b&gt;Mouse&lt;/b&gt;</t>
+          <t>HP M100S Gaming Mouse</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>다얼유 LM121 RGB 버티컬 인체공학 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>다얼유 LM121 RGB 버티컬 인체공학 마우스</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>앱코 A800 3389 초경량 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 A800 3389 초경량 RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COX CM10 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>COX CM10 RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>리줌 RS-G1 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>리줌 RS-G1 RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>필립스 M444 유선 버티컬 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>필립스 M444 유선 버티컬 마우스</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>앱코 A100 레인보우 LED 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 A100 레인보우 LED 게이밍 마우스</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>마이크로소프트 프로 인텔리 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>마이크로소프트 프로 인텔리 마우스</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>로지텍 B100 Optical &lt;b&gt;Mouse&lt;/b&gt;</t>
+          <t>로지텍 B100 Optical Mouse</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>펄사 Xlite 초경량 유선 게이밍  &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>펄사 Xlite 초경량 유선 게이밍  마우스</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HP M200 Gaming &lt;b&gt;Mouse&lt;/b&gt;</t>
+          <t>HP M200 Gaming Mouse</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>청연엠엔에스 NAVEE NV73-VMS10U 버티컬 무소음 유선&lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>청연엠엔에스 NAVEE NV73-VMS10U 버티컬 무소음 유선마우스</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>펄사 Xlite 초경량 유선 게이밍 &lt;b&gt;마우스&lt;/b&gt; 풀세트</t>
+          <t>펄사 Xlite 초경량 유선 게이밍 마우스 풀세트</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>마이크로닉스 MANIC G40 RGB PMW3360 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>마이크로닉스 MANIC G40 RGB PMW3360 게이밍 마우스</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>로지텍 G PRO 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>로지텍 G PRO 게이밍 마우스</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 SPA-MMG1PUB 게이밍&lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>삼성전자 삼성 SPA-MMG1PUB 게이밍마우스</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HP M280 Gaming &lt;b&gt;Mouse&lt;/b&gt;</t>
+          <t>HP M280 Gaming Mouse</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>플레오맥스 MO-ER700 인체공학 버티칼 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>플레오맥스 MO-ER700 인체공학 버티칼 마우스</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>제닉스 STORMX M1 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>제닉스 STORMX M1 게이밍 마우스</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>다얼유 EM925 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt; 다이아몬드 에디션</t>
+          <t>다얼유 EM925 RGB 게이밍 마우스 다이아몬드 에디션</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>맥스틸 TRON G20 PRO PMW 3330 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>맥스틸 TRON G20 PRO PMW 3330 RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>앱코 H1 쉘체인저 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 H1 쉘체인저 게이밍 마우스</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>COSY 버티컬 이지 &lt;b&gt;마우스&lt;/b&gt;(M3124)</t>
+          <t>COSY 버티컬 이지 마우스(M3124)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>앱코 A810 3327 RGB 피어스 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 A810 3327 RGB 피어스 게이밍 마우스</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>앱코 MX1200 옵티컬 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 MX1200 옵티컬 게이밍 마우스</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>알텍랜싱 ALBM7444 유선 버티컬 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>알텍랜싱 ALBM7444 유선 버티컬 마우스</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HP M270 Gaming &lt;b&gt;Mouse&lt;/b&gt;</t>
+          <t>HP M270 Gaming Mouse</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>리줌 M8 유선 버티컬 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>리줌 M8 유선 버티컬 마우스</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>맥스틸 RATIO S10 PMW 3389 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>맥스틸 RATIO S10 PMW 3389 게이밍 마우스</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>마이크로소프트 에고노믹 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>마이크로소프트 에고노믹 마우스</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>COSY 버티컬 피트 &lt;b&gt;마우스&lt;/b&gt;(M1189)</t>
+          <t>COSY 버티컬 피트 마우스(M1189)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ASUS ROG GLADIUS II ORIGIN PINK 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>ASUS ROG GLADIUS II ORIGIN PINK 게이밍 마우스</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -6033,7 +6033,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>지클릭커 GM-M250 LED 무소음 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>지클릭커 GM-M250 LED 무소음 게이밍 마우스</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>제닉스 TITAN G 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>제닉스 TITAN G 게이밍 마우스</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HP M260 Gaming &lt;b&gt;Mouse&lt;/b&gt;</t>
+          <t>HP M260 Gaming Mouse</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TG삼보 TG-M300U 인체공학 유선 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>TG삼보 TG-M300U 인체공학 유선 마우스</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>앱코 HACKER A530 3325 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>앱코 HACKER A530 3325 RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HP G360 Gaming &lt;b&gt;Mouse&lt;/b&gt;</t>
+          <t>HP G360 Gaming Mouse</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>COX CM80 3330 RGB 게이밍 &lt;b&gt;마우스&lt;/b&gt;</t>
+          <t>COX CM80 3330 RGB 게이밍 마우스</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
